--- a/Xports/UD_French-ParisStories/VERB-indirect-obj.xlsx
+++ b/Xports/UD_French-ParisStories/VERB-indirect-obj.xlsx
@@ -18241,7 +18241,7 @@
         <v>1174</v>
       </c>
       <c r="O295">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:15">
@@ -18255,7 +18255,7 @@
         <v>1037</v>
       </c>
       <c r="E296" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F296" t="s">
         <v>676</v>
@@ -18273,10 +18273,10 @@
         <v>1187</v>
       </c>
       <c r="K296" t="s">
-        <v>1105</v>
+        <v>1199</v>
       </c>
       <c r="L296" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="M296" t="s">
         <v>1174</v>
